--- a/Entity Linking/Mapping/mapped_final_.xlsx
+++ b/Entity Linking/Mapping/mapped_final_.xlsx
@@ -1,175 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/ondanatv_usc_edu/Documents/USC Classes/558/Project/Work/fitness_kg/Entity Linking/Mapping/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0D82AEC838ABBE962573792B31EDD39EF77E8216" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04B9044C-FF55-439C-96C7-71C0ED900D49}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Anatomy" sheetId="1" r:id="rId1"/>
     <sheet name="Muscle" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="148">
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>URL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>ankles</t>
+  </si>
+  <si>
+    <t>arms</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>belly</t>
+  </si>
+  <si>
+    <t>calves</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>flexors</t>
+  </si>
+  <si>
+    <t>forearms</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>hips</t>
+  </si>
+  <si>
+    <t>kidneys</t>
+  </si>
+  <si>
+    <t>knees</t>
+  </si>
+  <si>
+    <t>legs</t>
+  </si>
+  <si>
+    <t>lungs</t>
   </si>
   <si>
     <t>neck</t>
   </si>
   <si>
+    <t>pelvis</t>
+  </si>
+  <si>
+    <t>sacrum</t>
+  </si>
+  <si>
     <t>shoulders</t>
   </si>
   <si>
+    <t>spine</t>
+  </si>
+  <si>
+    <t>thighs</t>
+  </si>
+  <si>
     <t>upper arms</t>
   </si>
   <si>
-    <t>forearms</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>chest</t>
-  </si>
-  <si>
     <t>waist</t>
   </si>
   <si>
-    <t>hips</t>
-  </si>
-  <si>
-    <t>thighs</t>
-  </si>
-  <si>
-    <t>calves</t>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>Kidneys</t>
-  </si>
-  <si>
-    <t>Lungs</t>
-  </si>
-  <si>
-    <t>Spine</t>
-  </si>
-  <si>
-    <t>Arms</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Belly</t>
-  </si>
-  <si>
-    <t>Hands</t>
-  </si>
-  <si>
-    <t>Flexors</t>
-  </si>
-  <si>
-    <t>Hips</t>
-  </si>
-  <si>
-    <t>Knees</t>
-  </si>
-  <si>
-    <t>Legs</t>
-  </si>
-  <si>
-    <t>Pelvis</t>
-  </si>
-  <si>
-    <t>Sacrum</t>
-  </si>
-  <si>
-    <t>Wrists</t>
+    <t>wrists</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/ankles/</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/arms/</t>
+  </si>
+  <si>
+    <t>https://exrx.net/Lists/ExList/BackWt</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/belly/</t>
+  </si>
+  <si>
+    <t>https://exrx.net/Lists/ExList/CalfWt</t>
+  </si>
+  <si>
+    <t>https://exrx.net/Lists/ExList/ChestWt</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/hip-flexors/</t>
+  </si>
+  <si>
+    <t>https://exrx.net/Lists/ExList/ForeArmWt</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/hands/</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/heart/</t>
+  </si>
+  <si>
+    <t>https://exrx.net/Lists/ExList/HipsWt</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/kidneys/</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/knees/</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/legs/</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/lungs/</t>
   </si>
   <si>
     <t>https://exrx.net/Lists/ExList/NeckWt</t>
   </si>
   <si>
+    <t>https://www.yogajournal.com/poses/anatomy/pelvis/</t>
+  </si>
+  <si>
+    <t>https://www.yogajournal.com/poses/anatomy/sacrum/</t>
+  </si>
+  <si>
     <t>https://exrx.net/Lists/ExList/ShouldWt</t>
   </si>
   <si>
+    <t>https://www.yogajournal.com/poses/anatomy/spine/</t>
+  </si>
+  <si>
+    <t>https://exrx.net/Lists/ExList/ThighWt</t>
+  </si>
+  <si>
     <t>https://exrx.net/Lists/ExList/ArmWt</t>
   </si>
   <si>
-    <t>https://exrx.net/Lists/ExList/ForeArmWt</t>
-  </si>
-  <si>
-    <t>https://exrx.net/Lists/ExList/BackWt</t>
-  </si>
-  <si>
-    <t>https://exrx.net/Lists/ExList/ChestWt</t>
-  </si>
-  <si>
     <t>https://exrx.net/Lists/ExList/WaistWt</t>
   </si>
   <si>
-    <t>https://exrx.net/Lists/ExList/HipsWt</t>
-  </si>
-  <si>
-    <t>https://exrx.net/Lists/ExList/ThighWt</t>
-  </si>
-  <si>
-    <t>https://exrx.net/Lists/ExList/CalfWt</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/heart/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/kidneys/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/lungs/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/spine/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/arms/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/belly/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/hands/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/hip-flexors/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/knees/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/legs/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/pelvis/</t>
-  </si>
-  <si>
-    <t>https://www.yogajournal.com/poses/anatomy/sacrum/</t>
-  </si>
-  <si>
     <t>https://www.yogajournal.com/poses/anatomy/wrists/</t>
   </si>
   <si>
@@ -290,34 +284,34 @@
     <t>deep hip external rotators</t>
   </si>
   <si>
-    <t>Abductors</t>
-  </si>
-  <si>
-    <t>Lower Back</t>
-  </si>
-  <si>
-    <t>Palmar Fascia</t>
-  </si>
-  <si>
-    <t>Upper Back</t>
-  </si>
-  <si>
-    <t>Plantar Fascia</t>
-  </si>
-  <si>
-    <t>Adductors</t>
-  </si>
-  <si>
-    <t>Hip Flexors</t>
-  </si>
-  <si>
-    <t>IT Band</t>
-  </si>
-  <si>
-    <t>Abs</t>
-  </si>
-  <si>
-    <t>Traps</t>
+    <t>abductors</t>
+  </si>
+  <si>
+    <t>lower back</t>
+  </si>
+  <si>
+    <t>palmar fascia</t>
+  </si>
+  <si>
+    <t>upper back</t>
+  </si>
+  <si>
+    <t>plantar fascia</t>
+  </si>
+  <si>
+    <t>adductors</t>
+  </si>
+  <si>
+    <t>hip flexors</t>
+  </si>
+  <si>
+    <t>it band</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>traps</t>
   </si>
   <si>
     <t>https://exrx.net/Muscles/Gastrocnemius</t>
@@ -470,8 +464,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,14 +541,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -601,7 +587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,27 +619,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,24 +653,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -878,19 +828,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="50.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,135 +843,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1034,7 +979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1042,7 +987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1050,99 +995,86 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1158,7 +1090,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1166,7 +1098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1174,7 +1106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1182,7 +1114,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1190,7 +1122,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1198,7 +1130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1206,7 +1138,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1214,7 +1146,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1222,7 +1154,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1230,7 +1162,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1238,7 +1170,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1246,7 +1178,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1254,7 +1186,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1262,7 +1194,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1270,7 +1202,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1278,7 +1210,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1286,7 +1218,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1294,7 +1226,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1302,7 +1234,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1310,7 +1242,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1318,7 +1250,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1326,7 +1258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1334,7 +1266,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1342,7 +1274,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1350,7 +1282,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -1358,7 +1290,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1366,7 +1298,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1374,7 +1306,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -1382,7 +1314,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -1390,7 +1322,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -1398,7 +1330,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -1406,7 +1338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1414,7 +1346,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1422,7 +1354,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -1430,7 +1362,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -1438,7 +1370,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -1446,7 +1378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -1454,7 +1386,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -1462,7 +1394,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -1470,7 +1402,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1478,7 +1410,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1486,7 +1418,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1494,7 +1426,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -1502,7 +1434,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -1510,7 +1442,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -1518,7 +1450,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -1526,7 +1458,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1534,7 +1466,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -1544,55 +1476,55 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" location="Pronation" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" location="Supination" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15" location="Pronation"/>
+    <hyperlink ref="B17" r:id="rId16" location="Supination"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
